--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/genetic_algorithm_cloud_scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D4A4E5-F918-2942-AFC8-8E92FD7C8338}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96913F00-6AE8-BD48-9DA2-BCD712983601}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Seconds Available Per Slice</t>
-  </si>
-  <si>
     <t>Burst time (ms)</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>JobID</t>
-  </si>
-  <si>
-    <t>Slot1</t>
   </si>
   <si>
     <t>Total Timing</t>
@@ -135,12 +129,18 @@
   <si>
     <t>Budget</t>
   </si>
+  <si>
+    <t>Maximum Jobs</t>
+  </si>
+  <si>
+    <t>Job_Slots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +155,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,14 +185,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,11 +212,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97192A4C-F1CC-1942-B4C5-182D86945286}" name="Table2" displayName="Table2" ref="P1:Q1048576" totalsRowShown="0">
-  <autoFilter ref="P1:Q1048576" xr:uid="{2AFE842C-6B77-2640-BA8C-244B13FBF4FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DCED6AF-6937-DD4A-ABE7-E162F30F43ED}" name="Table24" displayName="Table24" ref="J1:K1048576" totalsRowShown="0">
+  <autoFilter ref="J1:K1048576" xr:uid="{9AE078EA-D2EE-5548-9D3B-77DB2E682C22}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{930A5A72-9820-A646-A1C5-8AF21F1E60D4}" name="JobID"/>
-    <tableColumn id="2" xr3:uid="{33C51695-04FE-D149-83FC-D2AF213C1630}" name="Job Timings"/>
+    <tableColumn id="1" xr3:uid="{05060ECF-6484-D649-974B-D1668D935C89}" name="JobID"/>
+    <tableColumn id="2" xr3:uid="{09E906C6-1AA5-B342-B2CB-DBD68CC86825}" name="Job Timings"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48D07650-DBF6-6B45-A0DC-9FF6C86AA1AC}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{40B35B74-C180-2E4D-883D-4D77D181692D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{632D5CFA-3622-AF47-8145-58BE77D6CF00}" name="Resource"/>
+    <tableColumn id="2" xr3:uid="{EED2EC3B-8CF5-E345-8294-E7B66AD1F277}" name="Efficiency"/>
+    <tableColumn id="3" xr3:uid="{56499612-5A37-2449-912E-CD8A34FCF991}" name="Cost Per Second"/>
+    <tableColumn id="4" xr3:uid="{56B923B6-2B99-6147-8F1F-9BCF1FE251C3}" name="Maximum Jobs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,27 +556,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -560,10 +589,16 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>247</v>
       </c>
@@ -582,8 +617,14 @@
       <c r="H2">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>29</v>
       </c>
@@ -602,8 +643,14 @@
       <c r="H3">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>170</v>
       </c>
@@ -622,8 +669,14 @@
       <c r="H4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>164</v>
       </c>
@@ -642,8 +695,14 @@
       <c r="H5">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>312</v>
       </c>
@@ -662,8 +721,14 @@
       <c r="H6">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>36</v>
       </c>
@@ -682,8 +747,14 @@
       <c r="H7">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>99</v>
       </c>
@@ -702,8 +773,14 @@
       <c r="H8">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>30</v>
       </c>
@@ -722,8 +799,14 @@
       <c r="H9">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>39</v>
       </c>
@@ -742,8 +825,14 @@
       <c r="H10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>309</v>
       </c>
@@ -762,8 +851,14 @@
       <c r="H11">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>105</v>
       </c>
@@ -782,8 +877,14 @@
       <c r="H12">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>469</v>
       </c>
@@ -802,8 +903,14 @@
       <c r="H13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>435</v>
       </c>
@@ -822,8 +929,14 @@
       <c r="H14">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>315</v>
       </c>
@@ -842,8 +955,14 @@
       <c r="H15">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>423</v>
       </c>
@@ -862,8 +981,14 @@
       <c r="H16">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>155</v>
       </c>
@@ -882,8 +1007,14 @@
       <c r="H17">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>385</v>
       </c>
@@ -902,8 +1033,14 @@
       <c r="H18">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>321</v>
       </c>
@@ -922,8 +1059,14 @@
       <c r="H19">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>416</v>
       </c>
@@ -942,8 +1085,14 @@
       <c r="H20">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>478</v>
       </c>
@@ -962,8 +1111,14 @@
       <c r="H21">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>259</v>
       </c>
@@ -982,8 +1137,14 @@
       <c r="H22">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>348</v>
       </c>
@@ -1002,8 +1163,14 @@
       <c r="H23">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>424</v>
       </c>
@@ -1022,8 +1189,14 @@
       <c r="H24">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>207</v>
       </c>
@@ -1042,8 +1215,14 @@
       <c r="H25">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>144</v>
       </c>
@@ -1062,8 +1241,14 @@
       <c r="H26">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>167</v>
       </c>
@@ -1082,8 +1267,14 @@
       <c r="H27">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>300</v>
       </c>
@@ -1102,8 +1293,14 @@
       <c r="H28">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>328</v>
       </c>
@@ -1122,8 +1319,14 @@
       <c r="H29">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>257</v>
       </c>
@@ -1142,8 +1345,14 @@
       <c r="H30">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>175</v>
       </c>
@@ -1162,8 +1371,14 @@
       <c r="H31">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>47</v>
       </c>
@@ -1180,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>495</v>
       </c>
@@ -1197,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>371</v>
       </c>
@@ -1214,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>77</v>
       </c>
@@ -1231,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>354</v>
       </c>
@@ -1248,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>446</v>
       </c>
@@ -1265,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>379</v>
       </c>
@@ -1282,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>407</v>
       </c>
@@ -1299,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>409</v>
       </c>
@@ -1316,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>119</v>
       </c>
@@ -1333,7 +1548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>227</v>
       </c>
@@ -1350,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>307</v>
       </c>
@@ -1367,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>98</v>
       </c>
@@ -1384,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>487</v>
       </c>
@@ -1401,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>438</v>
       </c>
@@ -1418,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>219</v>
       </c>
@@ -1435,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>355</v>
       </c>
@@ -1452,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>277</v>
       </c>
@@ -1469,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>31</v>
       </c>
@@ -1486,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>166</v>
       </c>
@@ -1503,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>97</v>
       </c>
@@ -1520,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>231</v>
       </c>
@@ -1537,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>301</v>
       </c>
@@ -1554,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>408</v>
       </c>
@@ -1571,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>262</v>
       </c>
@@ -1588,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>85</v>
       </c>
@@ -1605,7 +1820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>210</v>
       </c>
@@ -1622,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>233</v>
       </c>
@@ -1639,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>484</v>
       </c>
@@ -1656,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>194</v>
       </c>
@@ -1673,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>37</v>
       </c>
@@ -1690,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>334</v>
       </c>
@@ -1707,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>380</v>
       </c>
@@ -1724,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>147</v>
       </c>
@@ -1741,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>364</v>
       </c>
@@ -1758,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>5</v>
       </c>
@@ -1775,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>317</v>
       </c>
@@ -1792,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>226</v>
       </c>
@@ -1809,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>339</v>
       </c>
@@ -1826,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>283</v>
       </c>
@@ -1843,7 +2058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>417</v>
       </c>
@@ -1860,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>483</v>
       </c>
@@ -1877,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>340</v>
       </c>
@@ -1894,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>494</v>
       </c>
@@ -1911,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>437</v>
       </c>
@@ -1928,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>173</v>
       </c>
@@ -1945,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>434</v>
       </c>
@@ -1962,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>243</v>
       </c>
@@ -1979,7 +2194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>9</v>
       </c>
@@ -1996,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>441</v>
       </c>
@@ -2013,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>250</v>
       </c>
@@ -2030,7 +2245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>493</v>
       </c>
@@ -2047,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>452</v>
       </c>
@@ -2064,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>368</v>
       </c>
@@ -2081,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>89</v>
       </c>
@@ -2098,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>280</v>
       </c>
@@ -2115,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>195</v>
       </c>
@@ -2132,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>351</v>
       </c>
@@ -2149,7 +2364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>440</v>
       </c>
@@ -2166,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>453</v>
       </c>
@@ -2183,7 +2398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>386</v>
       </c>
@@ -2200,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>3</v>
       </c>
@@ -2217,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>168</v>
       </c>
@@ -2234,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>104</v>
       </c>
@@ -2251,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>285</v>
       </c>
@@ -2268,7 +2483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>109</v>
       </c>
@@ -2285,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>108</v>
       </c>
@@ -2302,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2319,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>17</v>
       </c>
@@ -2336,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>176</v>
       </c>
@@ -2353,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>356</v>
       </c>
@@ -2370,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>133</v>
       </c>
@@ -2387,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>489</v>
       </c>
@@ -2404,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>66</v>
       </c>
@@ -2421,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>88</v>
       </c>
@@ -2438,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>421</v>
       </c>
@@ -2455,7 +2670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>390</v>
       </c>
@@ -2472,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>475</v>
       </c>
@@ -2489,7 +2704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>333</v>
       </c>
@@ -2506,7 +2721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>35</v>
       </c>
@@ -2523,7 +2738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>239</v>
       </c>
@@ -2540,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>54</v>
       </c>
@@ -2557,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>459</v>
       </c>
@@ -2574,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>76</v>
       </c>
@@ -2591,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>23</v>
       </c>
@@ -2608,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>64</v>
       </c>
@@ -2625,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>126</v>
       </c>
@@ -2642,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>428</v>
       </c>
@@ -2659,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>255</v>
       </c>
@@ -2676,7 +2891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>174</v>
       </c>
@@ -2693,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>53</v>
       </c>
@@ -2710,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>131</v>
       </c>
@@ -2727,7 +2942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>234</v>
       </c>
@@ -2744,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>198</v>
       </c>
@@ -2761,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>362</v>
       </c>
@@ -2778,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>253</v>
       </c>
@@ -2795,7 +3010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>488</v>
       </c>
@@ -2812,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>132</v>
       </c>
@@ -2829,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>326</v>
       </c>
@@ -2846,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>205</v>
       </c>
@@ -2863,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>59</v>
       </c>
@@ -2880,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>400</v>
       </c>
@@ -2897,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>225</v>
       </c>
@@ -2914,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>204</v>
       </c>
@@ -2931,7 +3146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>358</v>
       </c>
@@ -2948,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>245</v>
       </c>
@@ -2965,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>406</v>
       </c>
@@ -2982,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>78</v>
       </c>
@@ -2999,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>199</v>
       </c>
@@ -3016,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>94</v>
       </c>
@@ -3033,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>117</v>
       </c>
@@ -3050,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>67</v>
       </c>
@@ -3067,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>13</v>
       </c>
@@ -3084,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>404</v>
       </c>
@@ -3101,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>242</v>
       </c>
@@ -3118,7 +3333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>360</v>
       </c>
@@ -3135,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>447</v>
       </c>
@@ -3152,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>477</v>
       </c>
@@ -3169,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>473</v>
       </c>
@@ -3186,7 +3401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>490</v>
       </c>
@@ -3203,7 +3418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>49</v>
       </c>
@@ -3220,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>246</v>
       </c>
@@ -3237,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>276</v>
       </c>
@@ -3254,7 +3469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>181</v>
       </c>
@@ -3271,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>329</v>
       </c>
@@ -3288,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>229</v>
       </c>
@@ -3305,7 +3520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>261</v>
       </c>
@@ -3322,7 +3537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>240</v>
       </c>
@@ -3339,7 +3554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>90</v>
       </c>
@@ -3356,7 +3571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>60</v>
       </c>
@@ -3373,7 +3588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>142</v>
       </c>
@@ -3390,7 +3605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>349</v>
       </c>
@@ -3407,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>179</v>
       </c>
@@ -3424,7 +3639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>145</v>
       </c>
@@ -3441,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>465</v>
       </c>
@@ -3458,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>352</v>
       </c>
@@ -3475,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>146</v>
       </c>
@@ -3492,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>367</v>
       </c>
@@ -3509,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>191</v>
       </c>
@@ -3526,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>314</v>
       </c>
@@ -3543,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>185</v>
       </c>
@@ -3560,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>392</v>
       </c>
@@ -3577,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>203</v>
       </c>
@@ -3594,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>482</v>
       </c>
@@ -3611,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>218</v>
       </c>
@@ -3628,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>467</v>
       </c>
@@ -3645,7 +3860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>101</v>
       </c>
@@ -3662,7 +3877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>202</v>
       </c>
@@ -3679,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>188</v>
       </c>
@@ -3696,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>62</v>
       </c>
@@ -3713,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>420</v>
       </c>
@@ -3730,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>476</v>
       </c>
@@ -3747,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>42</v>
       </c>
@@ -3764,7 +3979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>187</v>
       </c>
@@ -3781,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>15</v>
       </c>
@@ -3798,7 +4013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>308</v>
       </c>
@@ -3815,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>58</v>
       </c>
@@ -3832,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>56</v>
       </c>
@@ -3849,7 +4064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>254</v>
       </c>
@@ -3866,7 +4081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>121</v>
       </c>
@@ -3883,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>86</v>
       </c>
@@ -3900,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>426</v>
       </c>
@@ -3917,7 +4132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>156</v>
       </c>
@@ -3934,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>125</v>
       </c>
@@ -3951,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>150</v>
       </c>
@@ -3968,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>114</v>
       </c>
@@ -3985,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>499</v>
       </c>
@@ -4002,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>221</v>
       </c>
@@ -4019,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>235</v>
       </c>
@@ -4036,7 +4251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>149</v>
       </c>
@@ -4053,7 +4268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>93</v>
       </c>
@@ -4070,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>102</v>
       </c>
@@ -4087,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>10</v>
       </c>
@@ -4104,7 +4319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>129</v>
       </c>
@@ -4121,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>189</v>
       </c>
@@ -4138,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>381</v>
       </c>
@@ -4155,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>123</v>
       </c>
@@ -4172,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>293</v>
       </c>
@@ -4189,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>343</v>
       </c>
@@ -4206,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>79</v>
       </c>
@@ -4223,7 +4438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>152</v>
       </c>
@@ -4240,7 +4455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>92</v>
       </c>
@@ -4257,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>463</v>
       </c>
@@ -4274,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>323</v>
       </c>
@@ -4291,7 +4506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>471</v>
       </c>
@@ -4308,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>322</v>
       </c>
@@ -4325,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>288</v>
       </c>
@@ -4342,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>180</v>
       </c>
@@ -4359,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>396</v>
       </c>
@@ -4376,7 +4591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>249</v>
       </c>
@@ -4393,7 +4608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>366</v>
       </c>
@@ -4410,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>290</v>
       </c>
@@ -4427,7 +4642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>75</v>
       </c>
@@ -4444,7 +4659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>338</v>
       </c>
@@ -4461,7 +4676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>370</v>
       </c>
@@ -4478,7 +4693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>80</v>
       </c>
@@ -4495,7 +4710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>393</v>
       </c>
@@ -4512,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>107</v>
       </c>
@@ -4529,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>48</v>
       </c>
@@ -4546,7 +4761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>178</v>
       </c>
@@ -4563,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>20</v>
       </c>
@@ -4580,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>211</v>
       </c>
@@ -4597,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>305</v>
       </c>
@@ -4614,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>177</v>
       </c>
@@ -4631,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>217</v>
       </c>
@@ -4648,7 +4863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>120</v>
       </c>
@@ -4665,7 +4880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>375</v>
       </c>
@@ -4682,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>384</v>
       </c>
@@ -4699,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>169</v>
       </c>
@@ -4716,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>172</v>
       </c>
@@ -4733,7 +4948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>224</v>
       </c>
@@ -4750,7 +4965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>350</v>
       </c>
@@ -4767,7 +4982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>442</v>
       </c>
@@ -4784,7 +4999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>281</v>
       </c>
@@ -4801,7 +5016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>46</v>
       </c>
@@ -4818,7 +5033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>63</v>
       </c>
@@ -4835,7 +5050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>335</v>
       </c>
@@ -4852,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>128</v>
       </c>
@@ -4869,7 +5084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>405</v>
       </c>
@@ -4886,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>331</v>
       </c>
@@ -4903,7 +5118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>369</v>
       </c>
@@ -4920,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>70</v>
       </c>
@@ -4937,7 +5152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>209</v>
       </c>
@@ -4954,7 +5169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>28</v>
       </c>
@@ -4971,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>299</v>
       </c>
@@ -4988,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>389</v>
       </c>
@@ -5005,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>69</v>
       </c>
@@ -5022,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>492</v>
       </c>
@@ -5039,7 +5254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>113</v>
       </c>
@@ -5056,7 +5271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>214</v>
       </c>
@@ -5073,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>65</v>
       </c>
@@ -5090,7 +5305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>68</v>
       </c>
@@ -5107,7 +5322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>162</v>
       </c>
@@ -5124,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>486</v>
       </c>
@@ -5141,7 +5356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>112</v>
       </c>
@@ -5158,7 +5373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>457</v>
       </c>
@@ -5175,7 +5390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>252</v>
       </c>
@@ -5192,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>332</v>
       </c>
@@ -5209,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>55</v>
       </c>
@@ -5226,7 +5441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>464</v>
       </c>
@@ -5243,7 +5458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>318</v>
       </c>
@@ -5260,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>130</v>
       </c>
@@ -5277,7 +5492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>33</v>
       </c>
@@ -5294,7 +5509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>223</v>
       </c>
@@ -5311,7 +5526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>115</v>
       </c>
@@ -5328,7 +5543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>345</v>
       </c>
@@ -5345,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>402</v>
       </c>
@@ -5362,7 +5577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>248</v>
       </c>
@@ -5379,7 +5594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>311</v>
       </c>
@@ -5396,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>182</v>
       </c>
@@ -5413,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>186</v>
       </c>
@@ -5430,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>103</v>
       </c>
@@ -5447,7 +5662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>422</v>
       </c>
@@ -5464,7 +5679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>153</v>
       </c>
@@ -5481,7 +5696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>1</v>
       </c>
@@ -5498,7 +5713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>134</v>
       </c>
@@ -5515,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>256</v>
       </c>
@@ -5532,7 +5747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>84</v>
       </c>
@@ -5549,7 +5764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>232</v>
       </c>
@@ -5566,7 +5781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>481</v>
       </c>
@@ -5583,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>451</v>
       </c>
@@ -5600,7 +5815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>462</v>
       </c>
@@ -5617,7 +5832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>383</v>
       </c>
@@ -5634,7 +5849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>313</v>
       </c>
@@ -5651,7 +5866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>44</v>
       </c>
@@ -5668,7 +5883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>388</v>
       </c>
@@ -5685,7 +5900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>310</v>
       </c>
@@ -5702,7 +5917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>263</v>
       </c>
@@ -5719,7 +5934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>158</v>
       </c>
@@ -5736,7 +5951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>12</v>
       </c>
@@ -5753,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>83</v>
       </c>
@@ -5770,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>458</v>
       </c>
@@ -5787,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>411</v>
       </c>
@@ -5804,7 +6019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>258</v>
       </c>
@@ -5821,7 +6036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>479</v>
       </c>
@@ -5838,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>270</v>
       </c>
@@ -5855,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>429</v>
       </c>
@@ -5872,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>357</v>
       </c>
@@ -5889,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>91</v>
       </c>
@@ -5906,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>294</v>
       </c>
@@ -5923,7 +6138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>287</v>
       </c>
@@ -5940,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>397</v>
       </c>
@@ -5957,7 +6172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>286</v>
       </c>
@@ -5974,7 +6189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>192</v>
       </c>
@@ -5991,7 +6206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>11</v>
       </c>
@@ -6008,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>431</v>
       </c>
@@ -6025,7 +6240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>264</v>
       </c>
@@ -6042,7 +6257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>472</v>
       </c>
@@ -6059,7 +6274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>38</v>
       </c>
@@ -6076,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>295</v>
       </c>
@@ -6093,7 +6308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>337</v>
       </c>
@@ -6110,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>137</v>
       </c>
@@ -6127,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>268</v>
       </c>
@@ -6144,7 +6359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>154</v>
       </c>
@@ -6161,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>52</v>
       </c>
@@ -6178,7 +6393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>456</v>
       </c>
@@ -6195,7 +6410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>106</v>
       </c>
@@ -6212,7 +6427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>289</v>
       </c>
@@ -6229,7 +6444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>284</v>
       </c>
@@ -6246,7 +6461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>399</v>
       </c>
@@ -6263,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>363</v>
       </c>
@@ -6280,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>304</v>
       </c>
@@ -6297,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>378</v>
       </c>
@@ -6314,7 +6529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>445</v>
       </c>
@@ -6331,7 +6546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>230</v>
       </c>
@@ -6348,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>208</v>
       </c>
@@ -6365,7 +6580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>21</v>
       </c>
@@ -6382,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>320</v>
       </c>
@@ -6399,7 +6614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>140</v>
       </c>
@@ -6416,7 +6631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>279</v>
       </c>
@@ -6433,7 +6648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>96</v>
       </c>
@@ -6450,7 +6665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>273</v>
       </c>
@@ -6467,7 +6682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>110</v>
       </c>
@@ -6484,7 +6699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>251</v>
       </c>
@@ -6501,7 +6716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>292</v>
       </c>
@@ -6518,7 +6733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>272</v>
       </c>
@@ -6535,7 +6750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>236</v>
       </c>
@@ -6552,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>439</v>
       </c>
@@ -6569,7 +6784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>184</v>
       </c>
@@ -6586,7 +6801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>212</v>
       </c>
@@ -6603,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>34</v>
       </c>
@@ -6620,7 +6835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>401</v>
       </c>
@@ -6637,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>418</v>
       </c>
@@ -6654,7 +6869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>298</v>
       </c>
@@ -6671,7 +6886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>330</v>
       </c>
@@ -6688,7 +6903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>72</v>
       </c>
@@ -6705,7 +6920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>116</v>
       </c>
@@ -6722,7 +6937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>7</v>
       </c>
@@ -6739,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>271</v>
       </c>
@@ -6756,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>266</v>
       </c>
@@ -6773,7 +6988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>444</v>
       </c>
@@ -6790,7 +7005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>190</v>
       </c>
@@ -6807,7 +7022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>244</v>
       </c>
@@ -6824,7 +7039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>165</v>
       </c>
@@ -6841,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>111</v>
       </c>
@@ -6858,7 +7073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5">
       <c r="A367">
         <v>454</v>
       </c>
@@ -6875,7 +7090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5">
       <c r="A368">
         <v>359</v>
       </c>
@@ -6892,7 +7107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5">
       <c r="A369">
         <v>24</v>
       </c>
@@ -6909,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5">
       <c r="A370">
         <v>57</v>
       </c>
@@ -6926,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5">
       <c r="A371">
         <v>161</v>
       </c>
@@ -6943,7 +7158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5">
       <c r="A372">
         <v>344</v>
       </c>
@@ -6960,7 +7175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5">
       <c r="A373">
         <v>346</v>
       </c>
@@ -6977,7 +7192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5">
       <c r="A374">
         <v>222</v>
       </c>
@@ -6994,7 +7209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5">
       <c r="A375">
         <v>361</v>
       </c>
@@ -7011,7 +7226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5">
       <c r="A376">
         <v>324</v>
       </c>
@@ -7028,7 +7243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5">
       <c r="A377">
         <v>470</v>
       </c>
@@ -7045,7 +7260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5">
       <c r="A378">
         <v>18</v>
       </c>
@@ -7062,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5">
       <c r="A379">
         <v>143</v>
       </c>
@@ -7079,7 +7294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5">
       <c r="A380">
         <v>265</v>
       </c>
@@ -7096,7 +7311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5">
       <c r="A381">
         <v>14</v>
       </c>
@@ -7113,7 +7328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5">
       <c r="A382">
         <v>374</v>
       </c>
@@ -7130,7 +7345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7147,7 +7362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5">
       <c r="A384">
         <v>151</v>
       </c>
@@ -7164,7 +7379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5">
       <c r="A385">
         <v>118</v>
       </c>
@@ -7181,7 +7396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5">
       <c r="A386">
         <v>427</v>
       </c>
@@ -7198,7 +7413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5">
       <c r="A387">
         <v>141</v>
       </c>
@@ -7215,7 +7430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5">
       <c r="A388">
         <v>32</v>
       </c>
@@ -7232,7 +7447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5">
       <c r="A389">
         <v>461</v>
       </c>
@@ -7249,7 +7464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5">
       <c r="A390">
         <v>412</v>
       </c>
@@ -7266,7 +7481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5">
       <c r="A391">
         <v>395</v>
       </c>
@@ -7283,7 +7498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5">
       <c r="A392">
         <v>267</v>
       </c>
@@ -7300,7 +7515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5">
       <c r="A393">
         <v>376</v>
       </c>
@@ -7317,7 +7532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5">
       <c r="A394">
         <v>22</v>
       </c>
@@ -7334,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5">
       <c r="A395">
         <v>201</v>
       </c>
@@ -7351,7 +7566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5">
       <c r="A396">
         <v>74</v>
       </c>
@@ -7368,7 +7583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5">
       <c r="A397">
         <v>278</v>
       </c>
@@ -7385,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5">
       <c r="A398">
         <v>238</v>
       </c>
@@ -7402,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5">
       <c r="A399">
         <v>460</v>
       </c>
@@ -7419,7 +7634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5">
       <c r="A400">
         <v>6</v>
       </c>
@@ -7436,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5">
       <c r="A401">
         <v>163</v>
       </c>
@@ -7453,7 +7668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5">
       <c r="A402">
         <v>414</v>
       </c>
@@ -7470,7 +7685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5">
       <c r="A403">
         <v>394</v>
       </c>
@@ -7487,7 +7702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5">
       <c r="A404">
         <v>45</v>
       </c>
@@ -7504,7 +7719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5">
       <c r="A405">
         <v>135</v>
       </c>
@@ -7521,7 +7736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5">
       <c r="A406">
         <v>480</v>
       </c>
@@ -7538,7 +7753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5">
       <c r="A407">
         <v>200</v>
       </c>
@@ -7555,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5">
       <c r="A408">
         <v>220</v>
       </c>
@@ -7572,7 +7787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5">
       <c r="A409">
         <v>19</v>
       </c>
@@ -7589,7 +7804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5">
       <c r="A410">
         <v>228</v>
       </c>
@@ -7606,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5">
       <c r="A411">
         <v>291</v>
       </c>
@@ -7623,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5">
       <c r="A412">
         <v>136</v>
       </c>
@@ -7640,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5">
       <c r="A413">
         <v>193</v>
       </c>
@@ -7657,7 +7872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5">
       <c r="A414">
         <v>496</v>
       </c>
@@ -7674,7 +7889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5">
       <c r="A415">
         <v>449</v>
       </c>
@@ -7691,7 +7906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5">
       <c r="A416">
         <v>171</v>
       </c>
@@ -7708,7 +7923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5">
       <c r="A417">
         <v>302</v>
       </c>
@@ -7725,7 +7940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5">
       <c r="A418">
         <v>413</v>
       </c>
@@ -7742,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5">
       <c r="A419">
         <v>260</v>
       </c>
@@ -7759,7 +7974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5">
       <c r="A420">
         <v>319</v>
       </c>
@@ -7776,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5">
       <c r="A421">
         <v>237</v>
       </c>
@@ -7793,7 +8008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5">
       <c r="A422">
         <v>419</v>
       </c>
@@ -7810,7 +8025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5">
       <c r="A423">
         <v>127</v>
       </c>
@@ -7827,7 +8042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5">
       <c r="A424">
         <v>336</v>
       </c>
@@ -7844,7 +8059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5">
       <c r="A425">
         <v>377</v>
       </c>
@@ -7861,7 +8076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5">
       <c r="A426">
         <v>2</v>
       </c>
@@ -7878,7 +8093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5">
       <c r="A427">
         <v>27</v>
       </c>
@@ -7895,7 +8110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5">
       <c r="A428">
         <v>327</v>
       </c>
@@ -7912,7 +8127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5">
       <c r="A429">
         <v>296</v>
       </c>
@@ -7929,7 +8144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5">
       <c r="A430">
         <v>372</v>
       </c>
@@ -7946,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5">
       <c r="A431">
         <v>353</v>
       </c>
@@ -7963,7 +8178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5">
       <c r="A432">
         <v>450</v>
       </c>
@@ -7980,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5">
       <c r="A433">
         <v>430</v>
       </c>
@@ -7997,7 +8212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5">
       <c r="A434">
         <v>8</v>
       </c>
@@ -8014,7 +8229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5">
       <c r="A435">
         <v>43</v>
       </c>
@@ -8031,7 +8246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5">
       <c r="A436">
         <v>51</v>
       </c>
@@ -8048,7 +8263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5">
       <c r="A437">
         <v>73</v>
       </c>
@@ -8065,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5">
       <c r="A438">
         <v>500</v>
       </c>
@@ -8082,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5">
       <c r="A439">
         <v>491</v>
       </c>
@@ -8099,7 +8314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5">
       <c r="A440">
         <v>95</v>
       </c>
@@ -8116,7 +8331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5">
       <c r="A441">
         <v>373</v>
       </c>
@@ -8133,7 +8348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5">
       <c r="A442">
         <v>50</v>
       </c>
@@ -8150,7 +8365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5">
       <c r="A443">
         <v>122</v>
       </c>
@@ -8167,7 +8382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5">
       <c r="A444">
         <v>436</v>
       </c>
@@ -8184,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5">
       <c r="A445">
         <v>71</v>
       </c>
@@ -8201,7 +8416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5">
       <c r="A446">
         <v>269</v>
       </c>
@@ -8218,7 +8433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5">
       <c r="A447">
         <v>303</v>
       </c>
@@ -8235,7 +8450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5">
       <c r="A448">
         <v>100</v>
       </c>
@@ -8252,7 +8467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5">
       <c r="A449">
         <v>274</v>
       </c>
@@ -8269,7 +8484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5">
       <c r="A450">
         <v>25</v>
       </c>
@@ -8286,7 +8501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5">
       <c r="A451">
         <v>474</v>
       </c>
@@ -8303,7 +8518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5">
       <c r="A452">
         <v>432</v>
       </c>
@@ -8320,7 +8535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5">
       <c r="A453">
         <v>82</v>
       </c>
@@ -8337,7 +8552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5">
       <c r="A454">
         <v>498</v>
       </c>
@@ -8354,7 +8569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5">
       <c r="A455">
         <v>387</v>
       </c>
@@ -8371,7 +8586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5">
       <c r="A456">
         <v>159</v>
       </c>
@@ -8388,7 +8603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5">
       <c r="A457">
         <v>425</v>
       </c>
@@ -8405,7 +8620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5">
       <c r="A458">
         <v>61</v>
       </c>
@@ -8422,7 +8637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5">
       <c r="A459">
         <v>215</v>
       </c>
@@ -8439,7 +8654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5">
       <c r="A460">
         <v>448</v>
       </c>
@@ -8456,7 +8671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5">
       <c r="A461">
         <v>415</v>
       </c>
@@ -8473,7 +8688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5">
       <c r="A462">
         <v>160</v>
       </c>
@@ -8490,7 +8705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5">
       <c r="A463">
         <v>282</v>
       </c>
@@ -8507,7 +8722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5">
       <c r="A464">
         <v>40</v>
       </c>
@@ -8524,7 +8739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5">
       <c r="A465">
         <v>365</v>
       </c>
@@ -8541,7 +8756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5">
       <c r="A466">
         <v>87</v>
       </c>
@@ -8558,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5">
       <c r="A467">
         <v>124</v>
       </c>
@@ -8575,7 +8790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5">
       <c r="A468">
         <v>455</v>
       </c>
@@ -8592,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5">
       <c r="A469">
         <v>443</v>
       </c>
@@ -8609,7 +8824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5">
       <c r="A470">
         <v>196</v>
       </c>
@@ -8626,7 +8841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5">
       <c r="A471">
         <v>391</v>
       </c>
@@ -8643,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5">
       <c r="A472">
         <v>398</v>
       </c>
@@ -8660,7 +8875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5">
       <c r="A473">
         <v>157</v>
       </c>
@@ -8677,7 +8892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5">
       <c r="A474">
         <v>213</v>
       </c>
@@ -8694,7 +8909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5">
       <c r="A475">
         <v>241</v>
       </c>
@@ -8711,7 +8926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5">
       <c r="A476">
         <v>306</v>
       </c>
@@ -8728,7 +8943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5">
       <c r="A477">
         <v>468</v>
       </c>
@@ -8745,7 +8960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5">
       <c r="A478">
         <v>275</v>
       </c>
@@ -8762,7 +8977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5">
       <c r="A479">
         <v>342</v>
       </c>
@@ -8779,7 +8994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5">
       <c r="A480">
         <v>403</v>
       </c>
@@ -8796,7 +9011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5">
       <c r="A481">
         <v>497</v>
       </c>
@@ -8813,7 +9028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5">
       <c r="A482">
         <v>347</v>
       </c>
@@ -8830,7 +9045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5">
       <c r="A483">
         <v>197</v>
       </c>
@@ -8847,7 +9062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5">
       <c r="A484">
         <v>316</v>
       </c>
@@ -8864,7 +9079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5">
       <c r="A485">
         <v>139</v>
       </c>
@@ -8881,7 +9096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5">
       <c r="A486">
         <v>81</v>
       </c>
@@ -8898,7 +9113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5">
       <c r="A487">
         <v>485</v>
       </c>
@@ -8915,7 +9130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5">
       <c r="A488">
         <v>148</v>
       </c>
@@ -8932,7 +9147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5">
       <c r="A489">
         <v>341</v>
       </c>
@@ -8949,7 +9164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5">
       <c r="A490">
         <v>16</v>
       </c>
@@ -8966,7 +9181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5">
       <c r="A491">
         <v>138</v>
       </c>
@@ -8983,7 +9198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5">
       <c r="A492">
         <v>216</v>
       </c>
@@ -9000,7 +9215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5">
       <c r="A493">
         <v>183</v>
       </c>
@@ -9017,7 +9232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5">
       <c r="A494">
         <v>297</v>
       </c>
@@ -9034,7 +9249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5">
       <c r="A495">
         <v>206</v>
       </c>
@@ -9051,7 +9266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5">
       <c r="A496">
         <v>26</v>
       </c>
@@ -9068,7 +9283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5">
       <c r="A497">
         <v>466</v>
       </c>
@@ -9085,7 +9300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5">
       <c r="A498">
         <v>433</v>
       </c>
@@ -9102,7 +9317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5">
       <c r="A499">
         <v>410</v>
       </c>
@@ -9119,7 +9334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5">
       <c r="A500">
         <v>41</v>
       </c>
@@ -9136,7 +9351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5">
       <c r="A501">
         <v>325</v>
       </c>
@@ -9155,6 +9370,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9163,17 +9381,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9184,10 +9404,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9198,10 +9418,10 @@
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9212,10 +9432,10 @@
         <v>0.02</v>
       </c>
       <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -9226,620 +9446,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <v>27</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
         <v>17</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>24</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>13</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P9">
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P10">
-        <v>9</v>
-      </c>
-      <c r="Q10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P11">
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f>VLOOKUP(C5,$P$2:$Q$31,2)</f>
-        <v>1.06</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:L13" si="0">VLOOKUP(D5,$P$2:$Q$31,2)</f>
-        <v>0.42</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0.61</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>1.06</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P13">
-        <v>12</v>
-      </c>
-      <c r="Q13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <f>VLOOKUP(C6,$P$2:$Q$31,2)</f>
-        <v>1.44</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:L14" si="1">VLOOKUP(D6,$P$2:$Q$31,2)</f>
-        <v>1.93</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>1.99</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>1.67</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1.53</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>1.31</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>1.92</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>1.86</v>
-      </c>
-      <c r="P14">
-        <v>13</v>
-      </c>
-      <c r="Q14">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <f>VLOOKUP(C7,$P$2:$Q$31,2)</f>
-        <v>2.56</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:L15" si="2">VLOOKUP(D7,$P$2:$Q$31,2)</f>
-        <v>3.21</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>3.74</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>3.57</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>2.87</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>3.04</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>2.57</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>2.81</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>2.79</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>2.89</v>
-      </c>
-      <c r="P15">
-        <v>14</v>
-      </c>
-      <c r="Q15">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P16">
-        <v>15</v>
-      </c>
-      <c r="Q16">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P17">
-        <v>16</v>
-      </c>
-      <c r="Q17">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18">
-        <v>17</v>
-      </c>
-      <c r="Q18">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <f>SUM(C12:M13)</f>
-        <v>7.120000000000001</v>
-      </c>
-      <c r="D19">
-        <f>C19/Resources!B2</f>
-        <v>7.120000000000001</v>
-      </c>
-      <c r="E19">
-        <f>D19*Resources!C2</f>
-        <v>7.1200000000000013E-2</v>
-      </c>
-      <c r="P19">
-        <v>18</v>
-      </c>
-      <c r="Q19">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C13:M14)</f>
-        <v>24.409999999999997</v>
-      </c>
-      <c r="D20">
-        <f>C20/Resources!B3</f>
-        <v>12.204999999999998</v>
-      </c>
-      <c r="E20">
-        <f>D20*Resources!C3</f>
-        <v>0.24409999999999998</v>
-      </c>
-      <c r="P20">
-        <v>19</v>
-      </c>
-      <c r="Q20">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C14:M15)</f>
-        <v>47.339999999999996</v>
-      </c>
-      <c r="D21">
-        <f>C21/Resources!B4</f>
-        <v>15.78</v>
-      </c>
-      <c r="E21">
-        <f>D21*Resources!C4</f>
-        <v>0.39450000000000002</v>
-      </c>
-      <c r="P21">
-        <v>20</v>
-      </c>
-      <c r="Q21">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P22">
-        <v>21</v>
-      </c>
-      <c r="Q22">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <f>SUM(E19:E22)</f>
-        <v>0.70979999999999999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <v>0.8</v>
-      </c>
-      <c r="P23">
-        <v>22</v>
-      </c>
-      <c r="Q23">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <f>SUM(D19:D21)</f>
-        <v>35.104999999999997</v>
-      </c>
-      <c r="P24">
-        <v>23</v>
-      </c>
-      <c r="Q24">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P25">
-        <v>24</v>
-      </c>
-      <c r="Q25">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26">
-        <f>E24</f>
-        <v>35.104999999999997</v>
-      </c>
-      <c r="P26">
-        <v>25</v>
-      </c>
-      <c r="Q26">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P27">
-        <v>26</v>
-      </c>
-      <c r="Q27">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P28">
-        <v>27</v>
-      </c>
-      <c r="Q28">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P29">
-        <v>28</v>
-      </c>
-      <c r="Q29">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P30">
-        <v>29</v>
-      </c>
-      <c r="Q30">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P31">
-        <v>30</v>
-      </c>
-      <c r="Q31">
-        <v>1.67</v>
       </c>
     </row>
   </sheetData>
@@ -9848,4 +9455,438 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="16">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(C5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.06</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(D5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.42</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(E5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(F5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.95</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(G5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.92</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(H5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP(I5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP(J5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP(K5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.06</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP(L5,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="16">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(C6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.44</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(D6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.93</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(E6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(F6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.99</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(G6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(H6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.67</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(I6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.53</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP(J6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.31</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP(K6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.92</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP(L6,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>1.86</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(C7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.56</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(D7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>3.21</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(E7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>3.74</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(F7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>3.57</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(G7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.87</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(H7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(I7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.57</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP(J7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.81</v>
+      </c>
+      <c r="K15">
+        <f>VLOOKUP(K7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.79</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(L7,Jobs!$J$2:'Jobs'!$K$31,2)</f>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C12:M13)</f>
+        <v>7.120000000000001</v>
+      </c>
+      <c r="D19">
+        <f>C19/Resources!B2</f>
+        <v>7.120000000000001</v>
+      </c>
+      <c r="E19">
+        <f>D19*Resources!C2</f>
+        <v>7.1200000000000013E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C13:M14)</f>
+        <v>24.409999999999997</v>
+      </c>
+      <c r="D20">
+        <f>C20/Resources!B3</f>
+        <v>12.204999999999998</v>
+      </c>
+      <c r="E20">
+        <f>D20*Resources!C3</f>
+        <v>0.24409999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C14:M15)</f>
+        <v>47.339999999999996</v>
+      </c>
+      <c r="D21">
+        <f>C21/Resources!B4</f>
+        <v>15.78</v>
+      </c>
+      <c r="E21">
+        <f>D21*Resources!C4</f>
+        <v>0.39450000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E19:E22)</f>
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <f>SUM(D19:D21)</f>
+        <v>35.104999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <f>E24</f>
+        <v>35.104999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/genetic_algorithm_cloud_scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E2509-80A3-0747-A018-8AD4AC1BEB8C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4657D7-20F3-074B-8800-E373FC35004D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">GA!$C$5:$G$13</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">GA!$C$5:$G$13</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">GA!$C$5:$G$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">GA!$E$26</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">GA!$E$29</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">GA!$M$7:$Q$10</definedName>
     <definedName name="solver_lhs7" localSheetId="2" hidden="1">GA!$M$7:$Q$10</definedName>
     <definedName name="solver_lhs8" localSheetId="2" hidden="1">GA!$R$10:$S$10</definedName>
@@ -45,7 +45,7 @@
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">GA!$F$29</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">GA!$F$32</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
@@ -71,7 +71,7 @@
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">alldifferent</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">integer</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">GA!$H$26</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">GA!$H$29</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">integer</definedName>
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">42</definedName>
@@ -80,7 +80,7 @@
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">1000</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -294,6 +294,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -12798,10 +12799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:W29"/>
+  <dimension ref="A3:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12814,7 +12815,7 @@
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -12845,7 +12846,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -12885,7 +12886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -12906,7 +12907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -12925,7 +12926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -12944,7 +12945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>25</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>41</v>
       </c>
@@ -13016,316 +13017,337 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
         <f>VLOOKUP(C5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.85</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D19" s="1">
         <f>VLOOKUP(D5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.42</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E19" s="1">
         <f>VLOOKUP(E5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.95</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F19" s="1">
         <f>VLOOKUP(F5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.78</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G19" s="1">
         <f>VLOOKUP(G5,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H19" s="1">
         <f>VLOOKUP(C6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.75</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I19" s="1">
         <f>VLOOKUP(D6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.61</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J19" s="1">
         <f>VLOOKUP(E6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.26</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K19" s="1">
         <f>VLOOKUP(F6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.71</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L19" s="1">
         <f>VLOOKUP(G6,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1">
         <f>VLOOKUP(C$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.44</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="1">
         <f>VLOOKUP(D$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.07</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="1">
         <f>VLOOKUP(E$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F20" s="1">
         <f>VLOOKUP(F$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>0.92</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G20" s="1">
         <f>VLOOKUP(G$7,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H20" s="1">
         <f>VLOOKUP(C$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.92</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I20" s="1">
         <f>VLOOKUP(D$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.31</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J20" s="1">
         <f>VLOOKUP(E$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K20" s="1">
         <f>VLOOKUP(F$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.06</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L20" s="1">
         <f>VLOOKUP(G$8,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M20" s="1">
         <f>VLOOKUP(C$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N20" s="1">
         <f>VLOOKUP(D$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.81</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O20" s="1">
         <f>VLOOKUP(E$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.93</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P20" s="1">
         <f>VLOOKUP(F$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.06</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q20" s="1">
         <f>VLOOKUP(G$9,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.53</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1">
+      <c r="B21" s="5"/>
+      <c r="C21" s="1">
         <f>VLOOKUP(C$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
         <v>1.67</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D21" s="1">
         <f>VLOOKUP(D$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
         <v>1.67</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="1">
         <f>VLOOKUP(E$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
         <v>1.67</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F21" s="1">
         <f>VLOOKUP(F$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
         <v>1.67</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G21" s="1">
         <f>VLOOKUP(G$10,Jobs!$J$2:'Jobs'!$K$31,2)</f>
         <v>1.67</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H21" s="1">
         <f>VLOOKUP(C$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>3.74</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I21" s="1">
         <f>VLOOKUP(D$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.86</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J21" s="1">
         <f>VLOOKUP(E$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.14</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K21" s="1">
         <f>VLOOKUP(F$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>3.57</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L21" s="1">
         <f>VLOOKUP(G$11,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>3.21</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M21" s="1">
         <f>VLOOKUP(C$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.57</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N21" s="1">
         <f>VLOOKUP(D$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.81</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O21" s="1">
         <f>VLOOKUP(E$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.56</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P21" s="1">
         <f>VLOOKUP(F$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.89</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q21" s="1">
         <f>VLOOKUP(G$12,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>1.99</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R21" s="1">
         <f>VLOOKUP(C$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.4900000000000002</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S21" s="1">
         <f>VLOOKUP(D$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.5</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T21" s="1">
         <f>VLOOKUP(E$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>3.04</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U21" s="1">
         <f>VLOOKUP(F$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.87</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V21" s="1">
         <f>VLOOKUP(G$13,Jobs!$J$2:'Jobs'!$K$501,2)</f>
         <v>2.79</v>
       </c>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
+      <c r="W21" s="1"/>
+    </row>
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1">
-        <f>SUM(C16:L16)</f>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1">
+        <f>SUM(C19:L19)</f>
         <v>5.58</v>
       </c>
-      <c r="D22" s="1">
-        <f>C22/Resources!B2</f>
+      <c r="D25" s="1">
+        <f>C25/Resources!B2</f>
         <v>5.58</v>
       </c>
-      <c r="E22" s="1">
-        <f>D22*Resources!C2</f>
+      <c r="E25" s="1">
+        <f>D25*Resources!C2</f>
         <v>5.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1">
-        <f>SUM(C17:Q17)</f>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
+        <f>SUM(C20:Q20)</f>
         <v>20.86</v>
       </c>
-      <c r="D23" s="1">
-        <f>C23/Resources!B3</f>
+      <c r="D26" s="1">
+        <f>C26/Resources!B3</f>
         <v>10.43</v>
       </c>
-      <c r="E23" s="1">
-        <f>D23*Resources!C3</f>
+      <c r="E26" s="1">
+        <f>D26*Resources!C3</f>
         <v>0.20860000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1">
-        <f>SUM(C18:V18)</f>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1">
+        <f>SUM(C21:V21)</f>
         <v>49.379999999999995</v>
       </c>
-      <c r="D24" s="1">
-        <f>C24/Resources!B4</f>
+      <c r="D27" s="1">
+        <f>C27/Resources!B4</f>
         <v>16.459999999999997</v>
       </c>
-      <c r="E24" s="1">
-        <f>D24*Resources!C4</f>
+      <c r="E27" s="1">
+        <f>D27*Resources!C4</f>
         <v>0.41149999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E26">
-        <f>SUM(E22:E25)</f>
+      <c r="E29">
+        <f>SUM(E25:E28)</f>
         <v>0.67589999999999995</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="E27">
-        <f>SUM(D22:D24)</f>
+      <c r="E30">
+        <f>SUM(D25:D27)</f>
         <v>32.47</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="D29" s="6" t="s">
+    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <f>E27</f>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <f>E30</f>
         <v>32.47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H17" formula="1"/>
+    <ignoredError sqref="H20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\KE5207-FM-GA\CI2_GA_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A121C978-89C4-4E80-B321-EF3AE798B06E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37912A06-A0D6-4CB6-BD9B-F0C749518F4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>Max jobs allowed</t>
   </si>
   <si>
-    <t>Max cost allowed</t>
-  </si>
-  <si>
     <t>Current # jobs alloted</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Max time allowed</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X1" t="s">
         <v>6</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="14">
         <v>0</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>20</v>
       </c>
       <c r="Y12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z12">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -1532,10 +1532,10 @@
         <v>14</v>
       </c>
       <c r="AF14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="AB18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC18" s="21">
         <v>4</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="19" spans="5:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AB19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC19" s="21">
         <v>5</v>

--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\KE5207-FM-GA\CI2_GA_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTechKE\Semester 2\computational intelligence ii\Lecture Notes\Day 1 and 2 (Fangming)\CA Git Code\genetic_algorithm_cloud_scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37912A06-A0D6-4CB6-BD9B-F0C749518F4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="38400" windowHeight="23532"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling resources" sheetId="4" r:id="rId1"/>
@@ -25,10 +24,12 @@
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Scheduling resources'!$W$7</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Scheduling resources'!$W$7</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$8</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Scheduling resources'!$C$7:$L$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Scheduling resources'!$C$7:$V$7</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Scheduling resources'!$W$2</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Scheduling resources'!$W$3</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Scheduling resources'!$W$4</definedName>
@@ -42,13 +43,15 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">12</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Scheduling resources'!$Z$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
@@ -61,6 +64,8 @@
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Scheduling resources'!$AD$21</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Scheduling resources'!$Z$11</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
@@ -80,17 +85,17 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anurag Chatterjee</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="AF14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -209,12 +214,15 @@
   </si>
   <si>
     <t>Max time allowed</t>
+  </si>
+  <si>
+    <t>total time less than max time allowed constraint not applied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -435,6 +443,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,23 +537,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -580,23 +572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,22 +747,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -864,12 +839,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -902,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="11">
         <v>0</v>
@@ -920,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="11">
         <v>0</v>
@@ -930,22 +905,22 @@
       </c>
       <c r="W2">
         <f>SUM(C2:V2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <f>SUMPRODUCT(C2:V2,B13:U13)</f>
-        <v>0.15</v>
+        <v>2.6</v>
       </c>
       <c r="Y2">
         <f>X2/AC15</f>
-        <v>0.15</v>
+        <v>2.6</v>
       </c>
       <c r="Z2">
         <f>Y2*AD15</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -959,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -974,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
@@ -983,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -1001,32 +976,32 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
       </c>
       <c r="V3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f>SUM(C3:V3)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f>SUMPRODUCT(C3:V3,B13:U13)</f>
-        <v>1.28</v>
+        <v>3.04</v>
       </c>
       <c r="Y3">
         <f>X3/AC16</f>
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="Z3">
         <f>Y3*AD16</f>
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.45599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
@@ -1067,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1079,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1096,18 +1071,18 @@
       </c>
       <c r="X4">
         <f>SUMPRODUCT(C4:V4,B13:U13)</f>
-        <v>3.9099999999999997</v>
+        <v>5.9700000000000006</v>
       </c>
       <c r="Y4">
         <f>X4/AC17</f>
-        <v>1.3033333333333332</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="Z4">
         <f>Y4*AD17</f>
-        <v>0.58650000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>0.89550000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1124,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1145,25 +1120,25 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1173,22 +1148,22 @@
       </c>
       <c r="W5">
         <f>SUM(C5:V5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5">
         <f>SUMPRODUCT(C5:V5,B13:U13)</f>
-        <v>3.9099999999999997</v>
+        <v>5.7299999999999995</v>
       </c>
       <c r="Y5">
         <f>X5/AC18</f>
-        <v>0.97749999999999992</v>
+        <v>1.4324999999999999</v>
       </c>
       <c r="Z5">
         <f>Y5*AD18</f>
-        <v>0.48874999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>1.4324999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1196,46 +1171,46 @@
         <v>0</v>
       </c>
       <c r="D6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
       </c>
       <c r="F6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="16">
         <v>0</v>
       </c>
       <c r="J6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="16">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="16">
         <v>0</v>
       </c>
       <c r="P6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="16">
         <v>0</v>
@@ -1244,39 +1219,39 @@
         <v>0</v>
       </c>
       <c r="T6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="17">
         <v>0</v>
       </c>
       <c r="W6">
         <f>SUM(C6:V6)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X6">
         <f>SUMPRODUCT(C6:V6,B13:U13)</f>
-        <v>3.3799999999999994</v>
+        <v>13.38</v>
       </c>
       <c r="Y6">
         <f>X6/AC18</f>
-        <v>0.84499999999999986</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6" si="0">Y6*AD19</f>
-        <v>0.46474999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>5.0175000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" ref="C7:H7" si="1">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -1288,96 +1263,96 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7" si="2">SUM(I2:I4)</f>
-        <v>0</v>
+        <f>SUM(I2:I6)</f>
+        <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:X7" si="3">SUM(J2:J6)</f>
+        <f t="shared" ref="J7:X7" si="2">SUM(J2:J6)</f>
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
-        <v>12.629999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y8" t="s">
         <v>9</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="9">
         <f>SUM(Z2:Z6)</f>
-        <v>1.7544999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8.1914999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y9" t="s">
         <v>10</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="22">
         <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
-        <v>5.315833333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>12.387500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y11" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1453,10 +1428,10 @@
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1496,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AC14" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AB15" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1533,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f>SUM(B13:U13)</f>
+        <v>30.72</v>
+      </c>
       <c r="AB16" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
       <c r="AB17" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:33" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1616,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="AD18" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="19">
         <v>6</v>
@@ -1628,7 +1607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AB19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1636,10 +1615,10 @@
         <v>5</v>
       </c>
       <c r="AD19" s="20">
-        <v>0.55000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="AE19" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF19" s="4">
         <v>0.3</v>
@@ -1648,13 +1627,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
       <c r="AC21" t="s">
         <v>15</v>
       </c>
       <c r="AD21">
         <f>SUM(AE15:AE19)</f>
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTechKE\Semester 2\computational intelligence ii\Lecture Notes\Day 1 and 2 (Fangming)\CA Git Code\genetic_algorithm_cloud_scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/genetic_algorithm_cloud_scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171AE6A7-64D5-344A-BAC0-A04F7800D10E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="38400" windowHeight="23532"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling resources" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.00001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
@@ -35,9 +36,10 @@
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Scheduling resources'!$W$4</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Scheduling resources'!$W$5</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Scheduling resources'!$W$6</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.001</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
@@ -78,24 +80,24 @@
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">1000</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Anurag Chatterjee</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0" shapeId="0">
+    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -214,15 +216,12 @@
   </si>
   <si>
     <t>Max time allowed</t>
-  </si>
-  <si>
-    <t>total time less than max time allowed constraint not applied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,6 +536,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +588,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,22 +780,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="18.44140625" customWidth="1"/>
-    <col min="25" max="25" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="17.5" customWidth="1"/>
     <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -839,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -905,22 +938,22 @@
       </c>
       <c r="W2">
         <f>SUM(C2:V2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <f>SUMPRODUCT(C2:V2,B13:U13)</f>
-        <v>2.6</v>
+        <v>3.9099999999999997</v>
       </c>
       <c r="Y2">
         <f>X2/AC15</f>
-        <v>2.6</v>
+        <v>3.9099999999999997</v>
       </c>
       <c r="Z2">
         <f>Y2*AD15</f>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+        <v>0.58649999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -931,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -986,22 +1019,22 @@
       </c>
       <c r="W3">
         <f>SUM(C3:V3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <f>SUMPRODUCT(C3:V3,B13:U13)</f>
-        <v>3.04</v>
+        <v>3.79</v>
       </c>
       <c r="Y3">
         <f>X3/AC16</f>
-        <v>1.52</v>
+        <v>1.895</v>
       </c>
       <c r="Z3">
         <f>Y3*AD16</f>
-        <v>0.45599999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+        <v>0.56850000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1115,7 @@
         <v>0.89550000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -1148,22 +1181,22 @@
       </c>
       <c r="W5">
         <f>SUM(C5:V5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <f>SUMPRODUCT(C5:V5,B13:U13)</f>
-        <v>5.7299999999999995</v>
+        <v>7.26</v>
       </c>
       <c r="Y5">
         <f>X5/AC18</f>
-        <v>1.4324999999999999</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="Z5">
         <f>Y5*AD18</f>
-        <v>1.4324999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+        <v>1.8149999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="16">
         <v>1</v>
@@ -1183,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="16">
         <v>0</v>
@@ -1198,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="16">
         <v>0</v>
@@ -1229,22 +1262,22 @@
       </c>
       <c r="W6">
         <f>SUM(C6:V6)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X6">
         <f>SUMPRODUCT(C6:V6,B13:U13)</f>
-        <v>13.38</v>
+        <v>9.7900000000000009</v>
       </c>
       <c r="Y6">
         <f>X6/AC18</f>
-        <v>3.3450000000000002</v>
+        <v>2.4475000000000002</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6" si="0">Y6*AD19</f>
-        <v>5.0175000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+        <v>3.6712500000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7">
         <f t="shared" ref="C7:H7" si="1">SUM(C2:C6)</f>
         <v>1</v>
@@ -1334,25 +1367,25 @@
         <v>30.72</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Y8" t="s">
         <v>9</v>
       </c>
       <c r="Z8" s="9">
         <f>SUM(Z2:Z6)</f>
-        <v>8.1914999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+        <v>7.5367500000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Y9" t="s">
         <v>10</v>
       </c>
       <c r="Z9" s="22">
         <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
-        <v>12.387500000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+        <v>13.2575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Y11" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1428,10 +1461,10 @@
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1529,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AC14" t="s">
         <v>2</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="AB15" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="G16">
         <f>SUM(B13:U13)</f>
         <v>30.72</v>
@@ -1557,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:33" x14ac:dyDescent="0.2">
       <c r="AB17" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:33" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:33" ht="16" x14ac:dyDescent="0.2">
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1607,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:33" ht="16" x14ac:dyDescent="0.2">
       <c r="AB19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1627,18 +1660,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:33" x14ac:dyDescent="0.2">
       <c r="AC21" t="s">
         <v>15</v>
       </c>
       <c r="AD21">
         <f>SUM(AE15:AE19)</f>
         <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="5:33" x14ac:dyDescent="0.3">
-      <c r="R22" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTechKE\Semester 2\computational intelligence ii\Lecture Notes\Day 1 and 2 (Fangming)\CA Git Code\genetic_algorithm_cloud_scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierl\PycharmProjects\GA_cloud_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC142FB-CE48-4213-9CD8-797AA68F3512}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="38400" windowHeight="23532"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="38400" windowHeight="23532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling resources" sheetId="4" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Scheduling resources'!$W$5</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Scheduling resources'!$W$6</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">60</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
@@ -78,24 +79,31 @@
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">10000</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="179021" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Anurag Chatterjee</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0" shapeId="0">
+    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,6 +545,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +597,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,11 +789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="AA4" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -865,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
@@ -880,44 +922,44 @@
         <v>0</v>
       </c>
       <c r="O2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="11">
         <v>0</v>
       </c>
       <c r="Q2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="11">
         <v>0</v>
       </c>
       <c r="T2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="11">
         <v>0</v>
       </c>
       <c r="V2" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <f>SUM(C2:V2)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X2">
         <f>SUMPRODUCT(C2:V2,B13:U13)</f>
-        <v>2.6</v>
+        <v>10.7</v>
       </c>
       <c r="Y2">
         <f>X2/AC15</f>
-        <v>2.6</v>
+        <v>10.7</v>
       </c>
       <c r="Z2">
         <f>Y2*AD15</f>
-        <v>0.39</v>
+        <v>1.6049999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -925,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -937,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -952,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -982,23 +1024,23 @@
         <v>0</v>
       </c>
       <c r="V3" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f>SUM(C3:V3)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <f>SUMPRODUCT(C3:V3,B13:U13)</f>
-        <v>3.04</v>
+        <v>10.609999999999998</v>
       </c>
       <c r="Y3">
         <f>X3/AC16</f>
-        <v>1.52</v>
+        <v>5.3049999999999988</v>
       </c>
       <c r="Z3">
         <f>Y3*AD16</f>
-        <v>0.45599999999999996</v>
+        <v>1.5914999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -1015,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -1024,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="8">
         <v>0</v>
@@ -1042,16 +1084,16 @@
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -1067,19 +1109,19 @@
       </c>
       <c r="W4">
         <f>SUM(C4:V4)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <f>SUMPRODUCT(C4:V4,B13:U13)</f>
-        <v>5.9700000000000006</v>
+        <v>2.59</v>
       </c>
       <c r="Y4">
         <f>X4/AC17</f>
-        <v>1.9900000000000002</v>
+        <v>0.86333333333333329</v>
       </c>
       <c r="Z4">
         <f>Y4*AD17</f>
-        <v>0.89550000000000007</v>
+        <v>0.38850000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -1090,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1099,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1126,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -1138,29 +1180,29 @@
         <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="13">
         <v>0</v>
       </c>
       <c r="W5">
         <f>SUM(C5:V5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <f>SUMPRODUCT(C5:V5,B13:U13)</f>
-        <v>5.7299999999999995</v>
+        <v>6.07</v>
       </c>
       <c r="Y5">
         <f>X5/AC18</f>
-        <v>1.4324999999999999</v>
+        <v>1.5175000000000001</v>
       </c>
       <c r="Z5">
         <f>Y5*AD18</f>
-        <v>1.4324999999999999</v>
+        <v>1.5175000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -1171,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
       </c>
       <c r="F6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="16">
         <v>0</v>
@@ -1195,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="16">
         <v>0</v>
@@ -1210,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="16">
         <v>0</v>
@@ -1222,26 +1264,26 @@
         <v>0</v>
       </c>
       <c r="U6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="17">
         <v>0</v>
       </c>
       <c r="W6">
         <f>SUM(C6:V6)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f>SUMPRODUCT(C6:V6,B13:U13)</f>
-        <v>13.38</v>
+        <v>0.75</v>
       </c>
       <c r="Y6">
         <f>X6/AC18</f>
-        <v>3.3450000000000002</v>
+        <v>0.1875</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6" si="0">Y6*AD19</f>
-        <v>5.0175000000000001</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -1331,7 +1373,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
-        <v>30.72</v>
+        <v>30.719999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -1340,7 +1382,7 @@
       </c>
       <c r="Z8" s="9">
         <f>SUM(Z2:Z6)</f>
-        <v>8.1914999999999996</v>
+        <v>5.3837499999999991</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -1349,7 +1391,7 @@
       </c>
       <c r="Z9" s="22">
         <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
-        <v>12.387500000000001</v>
+        <v>19.77333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -1428,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">

--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -1,93 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/genetic_algorithm_cloud_scheduling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierl\PycharmProjects\GA_cloud_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171AE6A7-64D5-344A-BAC0-A04F7800D10E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0815E4-4FDE-4EDF-ADAD-736B4A817BD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="456" windowWidth="19200" windowHeight="23544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling resources" sheetId="4" r:id="rId1"/>
+    <sheet name="Testing Premium Servers Pricing" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.00001</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Scheduling resources'!$W$7</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$7</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Scheduling resources'!$W$7</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$7</definedName>
     <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$9</definedName>
     <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$9</definedName>
     <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$9</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Scheduling resources'!$C$7:$V$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$7:$V$7</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Scheduling resources'!$W$2</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$2</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Scheduling resources'!$W$3</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$3</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Scheduling resources'!$W$4</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$4</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Scheduling resources'!$W$5</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$5</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Scheduling resources'!$W$6</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$6</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">60</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">60</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.001</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.001</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">12</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">12</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Scheduling resources'!$Z$8</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Scheduling resources'!$AD$21</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AD$21</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Scheduling resources'!$Z$11</definedName>
+    <definedName name="solver_rhs11" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$11</definedName>
     <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
+    <definedName name="solver_rhs12" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$12</definedName>
     <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
+    <definedName name="solver_rhs13" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$12</definedName>
     <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
+    <definedName name="solver_rhs14" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$12</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Scheduling resources'!$AE$15</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$15</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Scheduling resources'!$AE$16</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$16</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Scheduling resources'!$AE$17</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$17</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Scheduling resources'!$AE$18</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$18</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Scheduling resources'!$AE$19</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$19</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">1000</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">1000</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -149,8 +227,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anurag Chatterjee</author>
+  </authors>
+  <commentList>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{0610CA40-74CC-4C6A-88A9-423C5F9D4B31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anurag Chatterjee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Calculated by dividing by efficiency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{4AD4F2B4-667F-47B7-B100-1FB01AA12979}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anurag Chatterjee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+After pre-emtion # jobs the machine is unavailable for pre emption time and so it adds to the time</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -217,6 +353,21 @@
   <si>
     <t>Max time allowed</t>
   </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium </t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Server Class</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -411,11 +562,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -443,6 +609,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,19 +958,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="Z8" sqref="B1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
     <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -872,15 +1047,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -892,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -913,58 +1088,58 @@
         <v>0</v>
       </c>
       <c r="O2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="11">
         <v>0</v>
       </c>
       <c r="Q2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="11">
         <v>0</v>
       </c>
       <c r="T2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="11">
         <v>0</v>
       </c>
       <c r="V2" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <f>SUM(C2:V2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X2">
         <f>SUMPRODUCT(C2:V2,B13:U13)</f>
-        <v>3.9099999999999997</v>
+        <v>11.71</v>
       </c>
       <c r="Y2">
         <f>X2/AC15</f>
-        <v>3.9099999999999997</v>
+        <v>11.71</v>
       </c>
       <c r="Z2">
         <f>Y2*AD15</f>
-        <v>0.58649999999999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1.7565000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -973,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -985,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -1006,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -1015,26 +1190,26 @@
         <v>0</v>
       </c>
       <c r="V3" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f>SUM(C3:V3)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <f>SUMPRODUCT(C3:V3,B13:U13)</f>
-        <v>3.79</v>
+        <v>9.18</v>
       </c>
       <c r="Y3">
         <f>X3/AC16</f>
-        <v>1.895</v>
+        <v>4.59</v>
       </c>
       <c r="Z3">
         <f>Y3*AD16</f>
-        <v>0.56850000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1.377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1048,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
@@ -1072,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1084,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -1093,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="13">
         <v>0</v>
@@ -1104,18 +1279,18 @@
       </c>
       <c r="X4">
         <f>SUMPRODUCT(C4:V4,B13:U13)</f>
-        <v>5.9700000000000006</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="Y4">
         <f>X4/AC17</f>
-        <v>1.9900000000000002</v>
+        <v>2.4333333333333336</v>
       </c>
       <c r="Z4">
         <f>Y4*AD17</f>
-        <v>0.89550000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1.0950000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1132,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1150,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -1168,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1181,22 +1356,22 @@
       </c>
       <c r="W5">
         <f>SUM(C5:V5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5">
         <f>SUMPRODUCT(C5:V5,B13:U13)</f>
-        <v>7.26</v>
+        <v>1.7799999999999998</v>
       </c>
       <c r="Y5">
         <f>X5/AC18</f>
-        <v>1.8149999999999999</v>
+        <v>0.44499999999999995</v>
       </c>
       <c r="Z5">
         <f>Y5*AD18</f>
-        <v>1.8149999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.44499999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1204,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
@@ -1228,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="16">
         <v>0</v>
@@ -1243,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="16">
         <v>0</v>
@@ -1255,29 +1430,29 @@
         <v>0</v>
       </c>
       <c r="U6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="17">
         <v>0</v>
       </c>
       <c r="W6">
         <f>SUM(C6:V6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f>SUMPRODUCT(C6:V6,B13:U13)</f>
-        <v>9.7900000000000009</v>
+        <v>0.75</v>
       </c>
       <c r="Y6">
         <f>X6/AC18</f>
-        <v>2.4475000000000002</v>
+        <v>0.1875</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6" si="0">Y6*AD19</f>
-        <v>3.6712500000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" ref="C7:H7" si="1">SUM(C2:C6)</f>
         <v>1</v>
@@ -1364,28 +1539,28 @@
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <v>30.720000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y8" t="s">
         <v>9</v>
       </c>
       <c r="Z8" s="9">
         <f>SUM(Z2:Z6)</f>
-        <v>7.5367500000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <v>4.9547500000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y9" t="s">
         <v>10</v>
       </c>
       <c r="Z9" s="22">
         <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
-        <v>13.2575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+        <v>20.565833333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Y11" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1461,10 +1636,10 @@
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1704,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AC14" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AB15" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G16">
         <f>SUM(B13:U13)</f>
         <v>30.72</v>
@@ -1590,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
       <c r="AB17" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:33" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1640,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AB19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1835,928 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="AC21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <f>SUM(AE15:AE19)</f>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CEA69A-D98C-4A31-9599-286FAD3E94CA}">
+  <dimension ref="A1:AG21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>SUM(C2:V2)</f>
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <f>SUMPRODUCT(C2:V2,B13:U13)</f>
+        <v>6.78</v>
+      </c>
+      <c r="Y2">
+        <f>X2/AC15</f>
+        <v>6.78</v>
+      </c>
+      <c r="Z2">
+        <f>Y2*AD15</f>
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="13">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>SUM(C3:V3)</f>
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <f>SUMPRODUCT(C3:V3,B13:U13)</f>
+        <v>10.609999999999998</v>
+      </c>
+      <c r="Y3">
+        <f>X3/AC16</f>
+        <v>5.3049999999999988</v>
+      </c>
+      <c r="Z3">
+        <f>Y3*AD16</f>
+        <v>1.5914999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>SUM(C4:V4)</f>
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <f>SUMPRODUCT(C4:V4,B13:U13)</f>
+        <v>5.09</v>
+      </c>
+      <c r="Y4">
+        <f>X4/AC17</f>
+        <v>1.6966666666666665</v>
+      </c>
+      <c r="Z4">
+        <f>Y4*AD17</f>
+        <v>0.76349999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>SUM(C5:V5)</f>
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <f>SUMPRODUCT(C5:V5,B13:U13)</f>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="Y5">
+        <f>X5/AC18</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="Z5">
+        <f>Y5*AD18</f>
+        <v>1.8399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>SUM(C6:V6)</f>
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <f>SUMPRODUCT(C6:V6,B13:U13)</f>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="Y6">
+        <f>X6/AC18</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6" si="0">Y6*AD19</f>
+        <v>5.7000000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" ref="C7:H7" si="1">SUM(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I6)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:X7" si="2">SUM(J2:J6)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="9">
+        <f>SUM(Z2:Z6)</f>
+        <v>10.912000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="22">
+        <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
+        <v>17.241666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
+      <c r="E12" s="23">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23">
+        <v>5</v>
+      </c>
+      <c r="G12" s="23">
+        <v>6</v>
+      </c>
+      <c r="H12" s="23">
+        <v>7</v>
+      </c>
+      <c r="I12" s="23">
+        <v>8</v>
+      </c>
+      <c r="J12" s="23">
+        <v>9</v>
+      </c>
+      <c r="K12" s="23">
+        <v>10</v>
+      </c>
+      <c r="L12" s="23">
+        <v>11</v>
+      </c>
+      <c r="M12" s="23">
+        <v>12</v>
+      </c>
+      <c r="N12" s="23">
+        <v>13</v>
+      </c>
+      <c r="O12" s="23">
+        <v>14</v>
+      </c>
+      <c r="P12" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>16</v>
+      </c>
+      <c r="R12" s="23">
+        <v>17</v>
+      </c>
+      <c r="S12" s="23">
+        <v>18</v>
+      </c>
+      <c r="T12" s="23">
+        <v>19</v>
+      </c>
+      <c r="U12" s="23">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1.99</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1.93</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="F13" s="23">
+        <v>2.57</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1.92</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="23">
+        <v>3.21</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1.53</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="N13" s="23">
+        <v>2.89</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="P13" s="23">
+        <v>2.79</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>1.06</v>
+      </c>
+      <c r="R13" s="23">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S13" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="T13" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="U13" s="23">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG14" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="AE15" s="24">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f>SUM(B13:U13)</f>
+        <v>30.72</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="24">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="AE16" s="24">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="AA17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="AE17" s="24">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:33" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="AA18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="25">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="26">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AA19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="27">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AG19" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
       <c r="AC21" t="s">
         <v>15</v>
       </c>

--- a/cloud_scheduling.xlsx
+++ b/cloud_scheduling.xlsx
@@ -1,164 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierl\PycharmProjects\GA_cloud_schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MTechKE\Semester 2\computational intelligence ii\Lecture Notes\Day 1 and 2 (Fangming)\CA Git Code\genetic_algorithm_cloud_scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0815E4-4FDE-4EDF-ADAD-736B4A817BD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="456" windowWidth="19200" windowHeight="23544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="456" windowWidth="19200" windowHeight="23544" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Scheduling resources" sheetId="4" r:id="rId1"/>
-    <sheet name="Testing Premium Servers Pricing" sheetId="5" r:id="rId2"/>
+    <sheet name="Scenario1-Less Time for jobs" sheetId="4" r:id="rId1"/>
+    <sheet name="Scenario2-More Time for job " sheetId="7" r:id="rId2"/>
+    <sheet name="Scenario3-Pricing Strategy" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$C$2:$V$6</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$C$2:$V$6</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$C$2:$V$6</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Scheduling resources'!$W$7</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$7</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Scheduling resources'!$W$7</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$7</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$9</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$9</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Scheduling resources'!$Z$9</definedName>
-    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Scheduling resources'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$2:$V$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Scheduling resources'!$C$7:$V$7</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$C$7:$V$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Scheduling resources'!$W$2</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$2</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Scheduling resources'!$W$3</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$3</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Scheduling resources'!$W$4</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$4</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Scheduling resources'!$W$5</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$5</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Scheduling resources'!$W$6</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$W$6</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$7</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$7</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$7</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$7</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$7</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$7</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$9</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$9</definedName>
+    <definedName name="solver_lhs12" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$9</definedName>
+    <definedName name="solver_lhs13" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$9</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$9</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$9</definedName>
+    <definedName name="solver_lhs14" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$C$2:$V$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$C$7:$V$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$C$7:$V$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$C$7:$V$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$2</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$2</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$2</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$3</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$3</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$3</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$4</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$4</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$4</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$5</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$5</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$5</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$W$6</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$W$6</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$W$6</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">60</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">60</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">60</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.001</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.001</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.001</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">12</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">12</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">12</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Scheduling resources'!$Z$8</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$8</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$8</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$8</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel13" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel14" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Scheduling resources'!$AD$21</definedName>
-    <definedName name="solver_rhs10" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AD$21</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Scheduling resources'!$Z$11</definedName>
-    <definedName name="solver_rhs11" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$11</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
-    <definedName name="solver_rhs12" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$12</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
-    <definedName name="solver_rhs13" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$12</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Scheduling resources'!$Z$12</definedName>
-    <definedName name="solver_rhs14" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$Z$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$AD$21</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$AD$21</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$AD$21</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$11</definedName>
+    <definedName name="solver_rhs11" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$11</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$11</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$12</definedName>
+    <definedName name="solver_rhs12" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$12</definedName>
+    <definedName name="solver_rhs12" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$12</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$12</definedName>
+    <definedName name="solver_rhs13" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$12</definedName>
+    <definedName name="solver_rhs13" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$12</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$Z$12</definedName>
+    <definedName name="solver_rhs14" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$Z$12</definedName>
+    <definedName name="solver_rhs14" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$Z$12</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">integer</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Scheduling resources'!$AE$15</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$15</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Scheduling resources'!$AE$16</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$16</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Scheduling resources'!$AE$17</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$17</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Scheduling resources'!$AE$18</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$18</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Scheduling resources'!$AE$19</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'Testing Premium Servers Pricing'!$AE$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$AE$15</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$AE$15</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$AE$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$AE$16</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$AE$16</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$AE$16</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$AE$17</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$AE$17</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$AE$17</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$AE$18</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$AE$18</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$AE$18</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Scenario1-Less Time for jobs'!$AE$19</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'Scenario2-More Time for job '!$AE$19</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">'Scenario3-Pricing Strategy'!$AE$19</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">1000</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">1000</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">1000</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -170,12 +240,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anurag Chatterjee</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AF14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,12 +298,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anurag Chatterjee</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{0610CA40-74CC-4C6A-88A9-423C5F9D4B31}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +327,65 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF14" authorId="0" shapeId="0" xr:uid="{4AD4F2B4-667F-47B7-B100-1FB01AA12979}">
+    <comment ref="AF14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anurag Chatterjee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+After pre-emtion # jobs the machine is unavailable for pre emption time and so it adds to the time</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Anurag Chatterjee</author>
+  </authors>
+  <commentList>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anurag Chatterjee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Calculated by dividing by efficiency</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -372,7 +500,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,23 +839,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -763,23 +874,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="Z8" sqref="B1:Z9"/>
+    <sheetView topLeftCell="J1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -1076,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -1088,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="11">
         <v>0</v>
@@ -1106,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="12">
         <v>1</v>
@@ -1117,15 +1211,15 @@
       </c>
       <c r="X2">
         <f>SUMPRODUCT(C2:V2,B13:U13)</f>
-        <v>11.71</v>
+        <v>8.43</v>
       </c>
       <c r="Y2">
         <f>X2/AC15</f>
-        <v>11.71</v>
+        <v>8.43</v>
       </c>
       <c r="Z2">
         <f>Y2*AD15</f>
-        <v>1.7565000000000002</v>
+        <v>1.2645</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -1145,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1181,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -1198,15 +1292,15 @@
       </c>
       <c r="X3">
         <f>SUMPRODUCT(C3:V3,B13:U13)</f>
-        <v>9.18</v>
+        <v>10.609999999999998</v>
       </c>
       <c r="Y3">
         <f>X3/AC16</f>
-        <v>4.59</v>
+        <v>5.3049999999999988</v>
       </c>
       <c r="Z3">
         <f>Y3*AD16</f>
-        <v>1.377</v>
+        <v>1.5914999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -1226,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
@@ -1247,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -1268,26 +1362,26 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="13">
         <v>0</v>
       </c>
       <c r="W4">
         <f>SUM(C4:V4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <f>SUMPRODUCT(C4:V4,B13:U13)</f>
-        <v>7.3000000000000007</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="Y4">
         <f>X4/AC17</f>
-        <v>2.4333333333333336</v>
+        <v>0.83</v>
       </c>
       <c r="Z4">
         <f>Y4*AD17</f>
-        <v>1.0950000000000002</v>
+        <v>0.3735</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -1298,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1316,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -1328,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -1343,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1356,19 +1450,19 @@
       </c>
       <c r="W5">
         <f>SUM(C5:V5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <f>SUMPRODUCT(C5:V5,B13:U13)</f>
-        <v>1.7799999999999998</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Y5">
         <f>X5/AC18</f>
-        <v>0.44499999999999995</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="Z5">
         <f>Y5*AD18</f>
-        <v>0.44499999999999995</v>
+        <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -1397,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="16">
         <v>0</v>
@@ -1412,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="16">
         <v>0</v>
@@ -1427,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="16">
         <v>0</v>
@@ -1437,19 +1531,19 @@
       </c>
       <c r="W6">
         <f>SUM(C6:V6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <f>SUMPRODUCT(C6:V6,B13:U13)</f>
-        <v>0.75</v>
+        <v>5.1700000000000008</v>
       </c>
       <c r="Y6">
         <f>X6/AC18</f>
-        <v>0.1875</v>
+        <v>1.2925000000000002</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6" si="0">Y6*AD19</f>
-        <v>0.28125</v>
+        <v>1.9387500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -1539,7 +1633,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
-        <v>30.720000000000002</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -1548,7 +1642,7 @@
       </c>
       <c r="Z8" s="9">
         <f>SUM(Z2:Z6)</f>
-        <v>4.9547500000000007</v>
+        <v>6.1732499999999995</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -1557,7 +1651,7 @@
       </c>
       <c r="Z9" s="22">
         <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
-        <v>20.565833333333334</v>
+        <v>17.912500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -1636,7 +1730,7 @@
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -1851,11 +1945,907 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CEA69A-D98C-4A31-9599-286FAD3E94CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="J1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>1</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>SUM(C2:V2)</f>
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <f>SUMPRODUCT(C2:V2,B13:U13)</f>
+        <v>8.43</v>
+      </c>
+      <c r="Y2">
+        <f>X2/AC15</f>
+        <v>8.43</v>
+      </c>
+      <c r="Z2">
+        <f>Y2*AD15</f>
+        <v>1.2645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="13">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>SUM(C3:V3)</f>
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <f>SUMPRODUCT(C3:V3,B13:U13)</f>
+        <v>10.609999999999998</v>
+      </c>
+      <c r="Y3">
+        <f>X3/AC16</f>
+        <v>5.3049999999999988</v>
+      </c>
+      <c r="Z3">
+        <f>Y3*AD16</f>
+        <v>1.5914999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>SUM(C4:V4)</f>
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <f>SUMPRODUCT(C4:V4,B13:U13)</f>
+        <v>4.38</v>
+      </c>
+      <c r="Y4">
+        <f>X4/AC17</f>
+        <v>1.46</v>
+      </c>
+      <c r="Z4">
+        <f>Y4*AD17</f>
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>SUM(C5:V5)</f>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f>SUMPRODUCT(C5:V5,B13:U13)</f>
+        <v>6.3800000000000008</v>
+      </c>
+      <c r="Y5">
+        <f>X5/AC18</f>
+        <v>1.5950000000000002</v>
+      </c>
+      <c r="Z5">
+        <f>Y5*AD18</f>
+        <v>1.5950000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>SUM(C6:V6)</f>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f>SUMPRODUCT(C6:V6,B13:U13)</f>
+        <v>0.92</v>
+      </c>
+      <c r="Y6">
+        <f>X6/AC18</f>
+        <v>0.23</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6" si="0">Y6*AD19</f>
+        <v>0.34500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" ref="C7:H7" si="1">SUM(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I6)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:X7" si="2">SUM(J2:J6)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="9">
+        <f>SUM(Z2:Z6)</f>
+        <v>5.4530000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="22">
+        <f>SUM(Y2:Y6)+INT(W2/AG15)*AF15+INT(W3/AG16)*AF16+INT(W4/AG17)*AF17+INT(W5/AG18)*AF18+INT(W6/AG19)*AF19</f>
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <v>18</v>
+      </c>
+      <c r="T12">
+        <v>19</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.99</v>
+      </c>
+      <c r="C13">
+        <v>1.93</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <v>0.42</v>
+      </c>
+      <c r="F13">
+        <v>2.57</v>
+      </c>
+      <c r="G13">
+        <v>1.31</v>
+      </c>
+      <c r="H13">
+        <v>1.92</v>
+      </c>
+      <c r="I13">
+        <v>0.92</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>3.21</v>
+      </c>
+      <c r="L13">
+        <v>1.53</v>
+      </c>
+      <c r="M13">
+        <v>0.15</v>
+      </c>
+      <c r="N13">
+        <v>2.89</v>
+      </c>
+      <c r="O13">
+        <v>0.95</v>
+      </c>
+      <c r="P13">
+        <v>2.79</v>
+      </c>
+      <c r="Q13">
+        <v>1.06</v>
+      </c>
+      <c r="R13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.61</v>
+      </c>
+      <c r="T13">
+        <v>1.44</v>
+      </c>
+      <c r="U13">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AC14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AB15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f>SUM(B13:U13)</f>
+        <v>30.72</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="AB17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:33" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="AB18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AB19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="AE19" s="19">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:33" x14ac:dyDescent="0.3">
+      <c r="AC21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <f>SUM(AE15:AE19)</f>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
